--- a/4_Data_Extraction/4_2_Open_Data/Paper_95/Clean_Data/CodeBook_P95_Exp1_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_95/Clean_Data/CodeBook_P95_Exp1_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>The individual participating in the experiment</t>
   </si>
   <si>
-    <t>Numerical identifier of the participant</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Numeric</t>
@@ -59,7 +59,7 @@
     <t>The task where the participant identifies if the label corresponds to the face shown</t>
   </si>
   <si>
-    <t>"Match" or "Non-match"</t>
+    <t>Match;Nomatch</t>
   </si>
   <si>
     <t>Category</t>
@@ -71,7 +71,7 @@
     <t>Label given to the face (self, friend, stranger)</t>
   </si>
   <si>
-    <t>"You", "Friend", "Stranger"</t>
+    <t>Self;Friend;Stranger</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -80,34 +80,25 @@
     <t>Response time by the participant for each task in milliseconds</t>
   </si>
   <si>
-    <t>Numerical value representing milliseconds</t>
-  </si>
-  <si>
     <t>RT_sec</t>
   </si>
   <si>
     <t>Response time by the participant for each task in seconds</t>
   </si>
   <si>
-    <t>Numerical value representing seconds</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
     <t>Accuracy of the participant's response in the matching task</t>
   </si>
   <si>
-    <t>Numeric value where 1 indicates correct response, and 0 indicates incorrect response</t>
-  </si>
-  <si>
     <t>Face_Gender</t>
   </si>
   <si>
     <t>Gender of the face shown to the participant</t>
   </si>
   <si>
-    <t>"Male" or "Female"</t>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -1050,14 +1041,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
-    <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1125,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1133,13 +1124,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1147,13 +1138,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1161,13 +1152,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
